--- a/status update James .xlsx
+++ b/status update James .xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="503" firstSheet="0" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="530" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Status Update 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,13 +29,14 @@
     <sheet name="Status Update 19" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="Status Update 20" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="Status Update 21" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Status Update 22" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="148">
   <si>
     <t>Current Status</t>
   </si>
@@ -474,6 +475,47 @@
   </si>
   <si>
     <t>Job 3:4 – Let that [the senior project] be darkness; let not God regard it from above, neither let the light shine upon it.</t>
+  </si>
+  <si>
+    <t>Worked on learning how to organize the project to make coding easier. Looked at shadows a bit more, and controls.</t>
+  </si>
+  <si>
+    <t>Still haven't found a house to move into after the semester is over.</t>
+  </si>
+  <si>
+    <t>On schedule</t>
+  </si>
+  <si>
+    <t>Will change my schedule to reflect this this week.</t>
+  </si>
+  <si>
+    <t>Need to finish changing my schedule to reflect my actual timeline.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abraham 4:14 - And [James] </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">organized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the lights in the expanse of the [virtual] heaven, and caused them to divide the day from the night;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6780,8 +6822,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7193,6 +7235,468 @@
       <c r="B17" s="47"/>
       <c r="C17" s="48" t="s">
         <v>141</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2955465587045"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2874493927126"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2914979757085"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.71255060728745"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.2914979757085"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.7246963562753"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="28" t="n">
+        <v>41699</v>
+      </c>
+      <c r="D3" s="28" t="n">
+        <v>41699</v>
+      </c>
+      <c r="E3" s="28" t="n">
+        <v>41699</v>
+      </c>
+      <c r="F3" s="28" t="n">
+        <v>41765</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="I3" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" s="29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="D4" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="E4" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="F4" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="G4" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="H4" s="28" t="n">
+        <v>41772</v>
+      </c>
+      <c r="I4" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="D5" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="F5" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <v>41772</v>
+      </c>
+      <c r="I5" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="28" t="n">
+        <v>41773</v>
+      </c>
+      <c r="D6" s="28" t="n">
+        <v>41713</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>41713</v>
+      </c>
+      <c r="F6" s="28" t="n">
+        <v>41809</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <v>41823</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <v>41830</v>
+      </c>
+      <c r="I6" s="29" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="28" t="n">
+        <v>41810</v>
+      </c>
+      <c r="D7" s="28" t="n">
+        <v>41830</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="28" t="n">
+        <v>41845</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <v>41907</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" s="29" t="n">
+        <v>63</v>
+      </c>
+      <c r="K7" s="29" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="28" t="n">
+        <v>42024</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="28" t="n">
+        <v>42060</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="28" t="n">
+        <v>42068</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="28" t="n">
+        <v>42088</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="29" t="n">
+        <v>189</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="K10" s="29" t="n">
+        <f aca="false">SUM(K3:K9)</f>
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
+        <v>147</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>

--- a/status update James .xlsx
+++ b/status update James .xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="24"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Status Update 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,13 +33,14 @@
     <sheet name="Status Update 23" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="Status Update 24" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="Status Update 25" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Status Update 26" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="166">
   <si>
     <t>Current Status</t>
   </si>
@@ -558,6 +559,21 @@
   </si>
   <si>
     <t>Mosiah 18:32 - But behold, it came to pass that the [student], having discovered a movement among [his project], [was excited because he had been working on it for a while].</t>
+  </si>
+  <si>
+    <t>Achieved movement, the ability to change the ambient lighting color, and the ability to change the direction the lighting is coming from.</t>
+  </si>
+  <si>
+    <t>Still have quite a bit of design to go</t>
+  </si>
+  <si>
+    <t>Going to have most of my research/design if not all finished 2 weeks from now, and start on coding the actual project.</t>
+  </si>
+  <si>
+    <t>Things are progressing well so far.</t>
+  </si>
+  <si>
+    <t>Alma 43:7 - ...that he might bring [webgl] into subjection to the accomplishment of his designs.</t>
   </si>
 </sst>
 </file>
@@ -8710,8 +8726,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9125,6 +9141,468 @@
       <c r="B17" s="47"/>
       <c r="C17" s="48" t="s">
         <v>160</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="10.719387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.71428571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.71938775510204"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="28" t="n">
+        <v>41699</v>
+      </c>
+      <c r="D3" s="28" t="n">
+        <v>41699</v>
+      </c>
+      <c r="E3" s="28" t="n">
+        <v>41699</v>
+      </c>
+      <c r="F3" s="28" t="n">
+        <v>41765</v>
+      </c>
+      <c r="G3" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="I3" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" s="29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="D4" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="E4" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="F4" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="G4" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="H4" s="28" t="n">
+        <v>41772</v>
+      </c>
+      <c r="I4" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="D5" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>41766</v>
+      </c>
+      <c r="F5" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="G5" s="28" t="n">
+        <v>41768</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <v>41772</v>
+      </c>
+      <c r="I5" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="28" t="n">
+        <v>41773</v>
+      </c>
+      <c r="D6" s="28" t="n">
+        <v>41713</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>41713</v>
+      </c>
+      <c r="F6" s="28" t="n">
+        <v>41809</v>
+      </c>
+      <c r="G6" s="28" t="n">
+        <v>41823</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <v>41830</v>
+      </c>
+      <c r="I6" s="29" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="29" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="28" t="n">
+        <v>41810</v>
+      </c>
+      <c r="D7" s="28" t="n">
+        <v>41830</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="28" t="n">
+        <v>41845</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <v>41907</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" s="29" t="n">
+        <v>76</v>
+      </c>
+      <c r="K7" s="29" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="28" t="n">
+        <v>42024</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="28" t="n">
+        <v>42060</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="28" t="n">
+        <v>42068</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="28" t="n">
+        <v>42088</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="29" t="n">
+        <v>189</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <v>208</v>
+      </c>
+      <c r="K10" s="29" t="n">
+        <f aca="false">SUM(K3:K9)</f>
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
+        <v>165</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>

--- a/status update James .xlsx
+++ b/status update James .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="987" firstSheet="16" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="987" firstSheet="19" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Status Update 1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Status Update 26" sheetId="26" r:id="rId26"/>
     <sheet name="Status Update 27" sheetId="27" r:id="rId27"/>
     <sheet name="Status update 28" sheetId="28" r:id="rId28"/>
+    <sheet name="Status Update 29" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="181">
   <si>
     <t>Current Status</t>
   </si>
@@ -610,6 +611,21 @@
   </si>
   <si>
     <t>Actual hours since last update: 8 hours</t>
+  </si>
+  <si>
+    <t>Actual hours since last update: 13.5 hours</t>
+  </si>
+  <si>
+    <t>Started to have a lot of fun coding the project. Made the terrain so that I can specify a width and length, and it renders. Organized the project so that I will be able to handle multiple objects at the same time. (making it easier to move one tank and stay with it, or rather move everything else)</t>
+  </si>
+  <si>
+    <t>Having trouble rendering the skybox for some reason, and still looking into it.</t>
+  </si>
+  <si>
+    <t>Terrain is finished, and ready to be used, but the skybox is giving me troubles. This delays everything else. I may have to adjust my hours if things keep going this way.</t>
+  </si>
+  <si>
+    <t>Genesis 1:9 - ...and let the dry land appear: and it was so.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +683,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -838,15 +854,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -929,21 +956,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,14 +965,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -975,6 +1002,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,18 +1019,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1405,28 +1437,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1598,38 +1630,38 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="11" t="s">
@@ -1638,79 +1670,79 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="47.25" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="18"/>
@@ -1727,12 +1759,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A17:B17"/>
@@ -1742,6 +1768,12 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1765,28 +1797,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2043,38 +2075,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="39" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -2085,88 +2117,82 @@
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="36" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="A12:B12"/>
@@ -2177,6 +2203,12 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2200,28 +2232,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2486,38 +2518,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -2528,88 +2560,82 @@
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="A12:B12"/>
@@ -2620,6 +2646,12 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2643,28 +2675,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2931,141 +2963,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3089,28 +3121,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3377,141 +3409,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3535,28 +3567,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3823,141 +3855,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3985,28 +4017,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4273,141 +4305,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4435,28 +4467,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4723,141 +4755,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4885,28 +4917,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5173,141 +5205,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5335,28 +5367,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5625,141 +5657,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5787,28 +5819,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6079,141 +6111,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6241,28 +6273,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6466,38 +6498,38 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="11" t="s">
@@ -6506,79 +6538,79 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="18"/>
@@ -6595,12 +6627,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A17:B17"/>
@@ -6610,6 +6636,12 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6633,28 +6665,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6925,141 +6957,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7087,28 +7119,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7379,139 +7411,139 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7539,28 +7571,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7831,141 +7863,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7993,28 +8025,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8285,141 +8317,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8447,28 +8479,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8739,141 +8771,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8901,28 +8933,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9193,141 +9225,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9358,28 +9390,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9650,141 +9682,141 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="44" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9812,28 +9844,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -10104,121 +10136,571 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="29" customHeight="1" thickBot="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="16" thickBot="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="37" customHeight="1" thickBot="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="26"/>
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31" thickBot="1">
+      <c r="A3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="20">
+        <v>41699</v>
+      </c>
+      <c r="D3" s="20">
+        <v>41699</v>
+      </c>
+      <c r="E3" s="20">
+        <v>41699</v>
+      </c>
+      <c r="F3" s="20">
+        <v>41765</v>
+      </c>
+      <c r="G3" s="20">
+        <v>41766</v>
+      </c>
+      <c r="H3" s="20">
+        <v>41766</v>
+      </c>
+      <c r="I3" s="21">
+        <v>5</v>
+      </c>
+      <c r="J3" s="21">
+        <v>6</v>
+      </c>
+      <c r="K3" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="20">
+        <v>41766</v>
+      </c>
+      <c r="D4" s="20">
+        <v>41766</v>
+      </c>
+      <c r="E4" s="20">
+        <v>41766</v>
+      </c>
+      <c r="F4" s="20">
+        <v>41768</v>
+      </c>
+      <c r="G4" s="20">
+        <v>41768</v>
+      </c>
+      <c r="H4" s="20">
+        <v>41772</v>
+      </c>
+      <c r="I4" s="21">
+        <v>3</v>
+      </c>
+      <c r="J4" s="21">
+        <v>3</v>
+      </c>
+      <c r="K4" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="20">
+        <v>41766</v>
+      </c>
+      <c r="D5" s="20">
+        <v>41766</v>
+      </c>
+      <c r="E5" s="20">
+        <v>41766</v>
+      </c>
+      <c r="F5" s="20">
+        <v>41768</v>
+      </c>
+      <c r="G5" s="20">
+        <v>41768</v>
+      </c>
+      <c r="H5" s="20">
+        <v>41772</v>
+      </c>
+      <c r="I5" s="21">
+        <v>4</v>
+      </c>
+      <c r="J5" s="21">
+        <v>4</v>
+      </c>
+      <c r="K5" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" thickBot="1">
+      <c r="A6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="20">
+        <v>41773</v>
+      </c>
+      <c r="D6" s="20">
+        <v>41713</v>
+      </c>
+      <c r="E6" s="20">
+        <v>41713</v>
+      </c>
+      <c r="F6" s="20">
+        <v>41809</v>
+      </c>
+      <c r="G6" s="20">
+        <v>41823</v>
+      </c>
+      <c r="H6" s="20">
+        <v>41830</v>
+      </c>
+      <c r="I6" s="21">
+        <v>60</v>
+      </c>
+      <c r="J6" s="21">
+        <v>40.5</v>
+      </c>
+      <c r="K6" s="21">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
+      <c r="A7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="20">
+        <v>41810</v>
+      </c>
+      <c r="D7" s="20">
+        <v>41830</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20">
+        <v>41845</v>
+      </c>
+      <c r="G7" s="20">
+        <v>41907</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="21">
+        <v>50</v>
+      </c>
+      <c r="J7" s="21">
+        <v>84.5</v>
+      </c>
+      <c r="K7" s="21">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" thickBot="1">
+      <c r="A8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="20">
+        <v>42024</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20">
+        <v>42060</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="21">
+        <v>47</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickBot="1">
+      <c r="A9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="20">
+        <v>42068</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20">
+        <v>42088</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21">
+        <v>20</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" thickBot="1">
+      <c r="A10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="21">
+        <v>189</v>
+      </c>
+      <c r="J10" s="21">
+        <v>208</v>
+      </c>
+      <c r="K10" s="21">
+        <f>SUM(K3:K9)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" thickBot="1">
+      <c r="A11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" thickBot="1">
+      <c r="A12" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" thickBot="1">
+      <c r="A13" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" thickBot="1">
+      <c r="A14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" thickBot="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" thickBot="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" ht="41" customHeight="1" thickBot="1">
+      <c r="A17" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -10250,40 +10732,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:13" ht="16" thickBot="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-    </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickBot="1">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -10312,7 +10794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31" thickBot="1">
+    <row r="3" spans="1:13" ht="31" thickBot="1">
       <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
@@ -10347,7 +10829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
@@ -10382,7 +10864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
+    <row r="5" spans="1:13" ht="16" thickBot="1">
       <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
@@ -10417,7 +10899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:13" ht="16" thickBot="1">
       <c r="A6" s="29" t="s">
         <v>38</v>
       </c>
@@ -10451,8 +10933,9 @@
       <c r="K6" s="21">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" thickBot="1">
       <c r="A7" s="29" t="s">
         <v>39</v>
       </c>
@@ -10482,8 +10965,9 @@
       <c r="K7" s="21">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" thickBot="1">
       <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
@@ -10505,10 +10989,10 @@
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" thickBot="1">
       <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
@@ -10531,7 +11015,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
+    <row r="10" spans="1:13" ht="16" thickBot="1">
       <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
@@ -10550,125 +11034,125 @@
       </c>
       <c r="K10" s="21">
         <f>SUM(K3:K9)</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="A11" s="47" t="s">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="56" customHeight="1" thickBot="1">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
-      <c r="A12" s="47" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" thickBot="1">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
-      <c r="A13" s="51" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" thickBot="1">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="43" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-    </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
-      <c r="A14" s="47" t="s">
+      <c r="E13" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" thickBot="1">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-    </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" thickBot="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" thickBot="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:11" ht="41" customHeight="1" thickBot="1">
-      <c r="A17" s="47" t="s">
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" ht="16" thickBot="1">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -10711,28 +11195,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -10984,38 +11468,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="50.25" customHeight="1">
       <c r="A13" s="23" t="s">
@@ -11056,58 +11540,52 @@
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="22"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A17:B17"/>
@@ -11118,6 +11596,12 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11141,28 +11625,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -11416,38 +11900,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="26.75" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="35" customHeight="1">
       <c r="A13" s="23" t="s">
@@ -11488,58 +11972,52 @@
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="23.75" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A17:B17"/>
@@ -11550,6 +12028,12 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11573,28 +12057,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -11848,38 +12332,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="26.75" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="35" customHeight="1">
       <c r="A13" s="23" t="s">
@@ -11920,58 +12404,52 @@
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="23.75" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A17:B17"/>
@@ -11982,6 +12460,12 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12009,28 +12493,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -12284,38 +12768,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="28.5" customHeight="1">
       <c r="A13" s="23" t="s">
@@ -12356,58 +12840,52 @@
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="22"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A17:B17"/>
@@ -12418,6 +12896,12 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12441,28 +12925,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -12719,38 +13203,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="48" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="28.5" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -12761,88 +13245,82 @@
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="50" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" ht="100.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="A12:B12"/>
@@ -12853,6 +13331,12 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12876,28 +13360,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -13154,38 +13638,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="28.5" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -13196,88 +13680,82 @@
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="50" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="A12:B12"/>
@@ -13288,6 +13766,12 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13311,28 +13795,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="27"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -13589,38 +14073,38 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="28.5" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -13631,88 +14115,82 @@
         <v>42</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="50" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="A12:B12"/>
@@ -13723,6 +14201,12 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
